--- a/data/prod_line_info.xlsx
+++ b/data/prod_line_info.xlsx
@@ -30,32 +30,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>针2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针3</t>
+    <t>work_hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>针4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针16</t>
+  </si>
+  <si>
+    <t>line17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针17</t>
   </si>
 </sst>
 </file>
@@ -409,7 +406,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -425,54 +422,58 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <f>16+2+5</f>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <f>1+5+17</f>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4">
-        <v>17</v>
+        <f>6+13+2</f>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>9.75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
